--- a/tmp/Gods of the deep - CCSL/Gods of the deep - CCSL-recap-detailed.xlsx
+++ b/tmp/Gods of the deep - CCSL/Gods of the deep - CCSL-recap-detailed.xlsx
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -576,16 +576,16 @@
         <v>126</v>
       </c>
       <c r="C8" t="n">
-        <v>5011</v>
+        <v>4991</v>
       </c>
       <c r="D8" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - HANK Oâ€™CONNELL</t>
+          <t>6 - HANK O’CONNELL</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -608,7 +608,7 @@
         <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="D10" t="n">
         <v>66</v>
@@ -640,10 +640,10 @@
         <v>143</v>
       </c>
       <c r="C12" t="n">
-        <v>6530</v>
+        <v>6518</v>
       </c>
       <c r="D12" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -688,7 +688,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D15" t="n">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="D17" t="n">
         <v>40</v>
@@ -777,14 +777,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - HANK Oâ€™CONNOLL</t>
+          <t>18 - HANK O’CONNOLL</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D21" t="n">
         <v>12</v>
@@ -873,7 +873,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - JIMâ€™S DAD</t>
+          <t>24 - JIM’S DAD</t>
         </is>
       </c>
       <c r="B27" t="n">
